--- a/biology/Médecine/Lisa-Maria_Kellermayr/Lisa-Maria_Kellermayr.xlsx
+++ b/biology/Médecine/Lisa-Maria_Kellermayr/Lisa-Maria_Kellermayr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lisa-Maria Kellermayr, née en 1985 et morte le 29 juillet 2022 à Seewalchen am Attersee, Autriche[1], est une femme médecin généraliste autrichienne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lisa-Maria Kellermayr, née en 1985 et morte le 29 juillet 2022 à Seewalchen am Attersee, Autriche, est une femme médecin généraliste autrichienne.
 « Dr Lisa-Maria Kellermayr @drlisamaria » est devenue célèbre en Autriche depuis le début des années 2020 grâce à Twitter. Elle parlait de ses expériences au contact des malades, commentait la politique sanitaire de son pays et critiquait les opposants à la vaccination et au masque.
 Lisa-Maria Kellermayr a rendu publiques des menaces de mort qu'elle a reçues. À la suite de ces menaces, elle a fermé son cabinet à la fin juin 2022 tout en continuant ses activités politiques.
 Enfin elle s‘est suicidée le 29 juillet 2022.
